--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Clec11a</t>
   </si>
   <si>
     <t>Itga10</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>16.8500419551937</v>
+        <v>0.576169</v>
       </c>
       <c r="H2">
-        <v>16.8500419551937</v>
+        <v>1.728507</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.03254571637877773</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.03254571637877773</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.516552746573448</v>
+        <v>0.5772876666666668</v>
       </c>
       <c r="N2">
-        <v>0.516552746573448</v>
+        <v>1.731863</v>
       </c>
       <c r="O2">
-        <v>0.2191014972301507</v>
+        <v>0.2241579014468519</v>
       </c>
       <c r="P2">
-        <v>0.2191014972301507</v>
+        <v>0.2241579014468518</v>
       </c>
       <c r="Q2">
-        <v>8.703935451833136</v>
+        <v>0.3326152576156667</v>
       </c>
       <c r="R2">
-        <v>8.703935451833136</v>
+        <v>2.993537318541</v>
       </c>
       <c r="S2">
-        <v>0.2191014972301507</v>
+        <v>0.007295379484551252</v>
       </c>
       <c r="T2">
-        <v>0.2191014972301507</v>
+        <v>0.007295379484551251</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>16.8500419551937</v>
+        <v>0.576169</v>
       </c>
       <c r="H3">
-        <v>16.8500419551937</v>
+        <v>1.728507</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.03254571637877773</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.03254571637877773</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.00731456511851</v>
+        <v>1.025249333333333</v>
       </c>
       <c r="N3">
-        <v>1.00731456511851</v>
+        <v>3.075748</v>
       </c>
       <c r="O3">
-        <v>0.4272634902500165</v>
+        <v>0.3980991666542628</v>
       </c>
       <c r="P3">
-        <v>0.4272634902500165</v>
+        <v>0.3980991666542628</v>
       </c>
       <c r="Q3">
-        <v>16.97329268432459</v>
+        <v>0.5907168831373333</v>
       </c>
       <c r="R3">
-        <v>16.97329268432459</v>
+        <v>5.316451948236</v>
       </c>
       <c r="S3">
-        <v>0.4272634902500165</v>
+        <v>0.01295642256855741</v>
       </c>
       <c r="T3">
-        <v>0.4272634902500165</v>
+        <v>0.01295642256855741</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>16.8500419551937</v>
+        <v>0.576169</v>
       </c>
       <c r="H4">
-        <v>16.8500419551937</v>
+        <v>1.728507</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.03254571637877773</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.03254571637877773</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.202269871156006</v>
+        <v>0.236315</v>
       </c>
       <c r="N4">
-        <v>0.202269871156006</v>
+        <v>0.7089449999999999</v>
       </c>
       <c r="O4">
-        <v>0.08579497816788613</v>
+        <v>0.09175992757004356</v>
       </c>
       <c r="P4">
-        <v>0.08579497816788613</v>
+        <v>0.09175992757004356</v>
       </c>
       <c r="Q4">
-        <v>3.408255815250325</v>
+        <v>0.136157377235</v>
       </c>
       <c r="R4">
-        <v>3.408255815250325</v>
+        <v>1.225416395115</v>
       </c>
       <c r="S4">
-        <v>0.08579497816788613</v>
+        <v>0.002986392577631825</v>
       </c>
       <c r="T4">
-        <v>0.08579497816788613</v>
+        <v>0.002986392577631825</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>16.8500419551937</v>
+        <v>0.576169</v>
       </c>
       <c r="H5">
-        <v>16.8500419551937</v>
+        <v>1.728507</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.03254571637877773</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.03254571637877773</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.179242141888347</v>
+        <v>0.271303</v>
       </c>
       <c r="N5">
-        <v>0.179242141888347</v>
+        <v>0.813909</v>
       </c>
       <c r="O5">
-        <v>0.07602751493431827</v>
+        <v>0.1053455922372068</v>
       </c>
       <c r="P5">
-        <v>0.07602751493431827</v>
+        <v>0.1053455922372068</v>
       </c>
       <c r="Q5">
-        <v>3.020237610957429</v>
+        <v>0.156316378207</v>
       </c>
       <c r="R5">
-        <v>3.020237610957429</v>
+        <v>1.406847403863</v>
       </c>
       <c r="S5">
-        <v>0.07602751493431827</v>
+        <v>0.003428547766706503</v>
       </c>
       <c r="T5">
-        <v>0.07602751493431827</v>
+        <v>0.003428547766706503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.576169</v>
+      </c>
+      <c r="H6">
+        <v>1.728507</v>
+      </c>
+      <c r="I6">
+        <v>0.03254571637877773</v>
+      </c>
+      <c r="J6">
+        <v>0.03254571637877773</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.4652066666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.39562</v>
+      </c>
+      <c r="O6">
+        <v>0.1806374120916351</v>
+      </c>
+      <c r="P6">
+        <v>0.1806374120916351</v>
+      </c>
+      <c r="Q6">
+        <v>0.2680376599266667</v>
+      </c>
+      <c r="R6">
+        <v>2.41233893934</v>
+      </c>
+      <c r="S6">
+        <v>0.00587897398133075</v>
+      </c>
+      <c r="T6">
+        <v>0.00587897398133075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>17.041313</v>
+      </c>
+      <c r="H7">
+        <v>51.123939</v>
+      </c>
+      <c r="I7">
+        <v>0.9626025343605399</v>
+      </c>
+      <c r="J7">
+        <v>0.9626025343605399</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5772876666666668</v>
+      </c>
+      <c r="N7">
+        <v>1.731863</v>
+      </c>
+      <c r="O7">
+        <v>0.2241579014468519</v>
+      </c>
+      <c r="P7">
+        <v>0.2241579014468518</v>
+      </c>
+      <c r="Q7">
+        <v>9.837739818706334</v>
+      </c>
+      <c r="R7">
+        <v>88.53965836835701</v>
+      </c>
+      <c r="S7">
+        <v>0.2157749640296797</v>
+      </c>
+      <c r="T7">
+        <v>0.2157749640296797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>17.041313</v>
+      </c>
+      <c r="H8">
+        <v>51.123939</v>
+      </c>
+      <c r="I8">
+        <v>0.9626025343605399</v>
+      </c>
+      <c r="J8">
+        <v>0.9626025343605399</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.025249333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.075748</v>
+      </c>
+      <c r="O8">
+        <v>0.3980991666542628</v>
+      </c>
+      <c r="P8">
+        <v>0.3980991666542628</v>
+      </c>
+      <c r="Q8">
+        <v>17.47159479237466</v>
+      </c>
+      <c r="R8">
+        <v>157.244353131372</v>
+      </c>
+      <c r="S8">
+        <v>0.3832112667482123</v>
+      </c>
+      <c r="T8">
+        <v>0.3832112667482123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>17.041313</v>
+      </c>
+      <c r="H9">
+        <v>51.123939</v>
+      </c>
+      <c r="I9">
+        <v>0.9626025343605399</v>
+      </c>
+      <c r="J9">
+        <v>0.9626025343605399</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.236315</v>
+      </c>
+      <c r="N9">
+        <v>0.7089449999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.09175992757004356</v>
+      </c>
+      <c r="P9">
+        <v>0.09175992757004356</v>
+      </c>
+      <c r="Q9">
+        <v>4.027117881594999</v>
+      </c>
+      <c r="R9">
+        <v>36.244060934355</v>
+      </c>
+      <c r="S9">
+        <v>0.08832833883166351</v>
+      </c>
+      <c r="T9">
+        <v>0.08832833883166351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>17.041313</v>
+      </c>
+      <c r="H10">
+        <v>51.123939</v>
+      </c>
+      <c r="I10">
+        <v>0.9626025343605399</v>
+      </c>
+      <c r="J10">
+        <v>0.9626025343605399</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.271303</v>
+      </c>
+      <c r="N10">
+        <v>0.813909</v>
+      </c>
+      <c r="O10">
+        <v>0.1053455922372068</v>
+      </c>
+      <c r="P10">
+        <v>0.1053455922372068</v>
+      </c>
+      <c r="Q10">
+        <v>4.623359340839</v>
+      </c>
+      <c r="R10">
+        <v>41.610234067551</v>
+      </c>
+      <c r="S10">
+        <v>0.1014059340712473</v>
+      </c>
+      <c r="T10">
+        <v>0.1014059340712473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>17.041313</v>
+      </c>
+      <c r="H11">
+        <v>51.123939</v>
+      </c>
+      <c r="I11">
+        <v>0.9626025343605399</v>
+      </c>
+      <c r="J11">
+        <v>0.9626025343605399</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.4652066666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.39562</v>
+      </c>
+      <c r="O11">
+        <v>0.1806374120916351</v>
+      </c>
+      <c r="P11">
+        <v>0.1806374120916351</v>
+      </c>
+      <c r="Q11">
+        <v>7.927732416353334</v>
+      </c>
+      <c r="R11">
+        <v>71.34959174718</v>
+      </c>
+      <c r="S11">
+        <v>0.1738820306797371</v>
+      </c>
+      <c r="T11">
+        <v>0.1738820306797371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.08589233333333335</v>
+      </c>
+      <c r="H12">
+        <v>0.257677</v>
+      </c>
+      <c r="I12">
+        <v>0.004851749260682376</v>
+      </c>
+      <c r="J12">
+        <v>0.004851749260682376</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5772876666666668</v>
+      </c>
+      <c r="N12">
+        <v>1.731863</v>
+      </c>
+      <c r="O12">
+        <v>0.2241579014468519</v>
+      </c>
+      <c r="P12">
+        <v>0.2241579014468518</v>
+      </c>
+      <c r="Q12">
+        <v>0.04958458469455557</v>
+      </c>
+      <c r="R12">
+        <v>0.4462612622510001</v>
+      </c>
+      <c r="S12">
+        <v>0.001087557932620876</v>
+      </c>
+      <c r="T12">
+        <v>0.001087557932620876</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.08589233333333335</v>
+      </c>
+      <c r="H13">
+        <v>0.257677</v>
+      </c>
+      <c r="I13">
+        <v>0.004851749260682376</v>
+      </c>
+      <c r="J13">
+        <v>0.004851749260682376</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.025249333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.075748</v>
+      </c>
+      <c r="O13">
+        <v>0.3980991666542628</v>
+      </c>
+      <c r="P13">
+        <v>0.3980991666542628</v>
+      </c>
+      <c r="Q13">
+        <v>0.08806105748844445</v>
+      </c>
+      <c r="R13">
+        <v>0.7925495173960001</v>
+      </c>
+      <c r="S13">
+        <v>0.001931477337493089</v>
+      </c>
+      <c r="T13">
+        <v>0.001931477337493089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.08589233333333335</v>
+      </c>
+      <c r="H14">
+        <v>0.257677</v>
+      </c>
+      <c r="I14">
+        <v>0.004851749260682376</v>
+      </c>
+      <c r="J14">
+        <v>0.004851749260682376</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.236315</v>
+      </c>
+      <c r="N14">
+        <v>0.7089449999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.09175992757004356</v>
+      </c>
+      <c r="P14">
+        <v>0.09175992757004356</v>
+      </c>
+      <c r="Q14">
+        <v>0.02029764675166667</v>
+      </c>
+      <c r="R14">
+        <v>0.182678820765</v>
+      </c>
+      <c r="S14">
+        <v>0.0004451961607482272</v>
+      </c>
+      <c r="T14">
+        <v>0.0004451961607482272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>16.8500419551937</v>
-      </c>
-      <c r="H6">
-        <v>16.8500419551937</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.452216369969717</v>
-      </c>
-      <c r="N6">
-        <v>0.452216369969717</v>
-      </c>
-      <c r="O6">
-        <v>0.1918125194176283</v>
-      </c>
-      <c r="P6">
-        <v>0.1918125194176283</v>
-      </c>
-      <c r="Q6">
-        <v>7.619864806815127</v>
-      </c>
-      <c r="R6">
-        <v>7.619864806815127</v>
-      </c>
-      <c r="S6">
-        <v>0.1918125194176283</v>
-      </c>
-      <c r="T6">
-        <v>0.1918125194176283</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.08589233333333335</v>
+      </c>
+      <c r="H15">
+        <v>0.257677</v>
+      </c>
+      <c r="I15">
+        <v>0.004851749260682376</v>
+      </c>
+      <c r="J15">
+        <v>0.004851749260682376</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.271303</v>
+      </c>
+      <c r="N15">
+        <v>0.813909</v>
+      </c>
+      <c r="O15">
+        <v>0.1053455922372068</v>
+      </c>
+      <c r="P15">
+        <v>0.1053455922372068</v>
+      </c>
+      <c r="Q15">
+        <v>0.02330284771033334</v>
+      </c>
+      <c r="R15">
+        <v>0.209725629393</v>
+      </c>
+      <c r="S15">
+        <v>0.0005111103992530153</v>
+      </c>
+      <c r="T15">
+        <v>0.0005111103992530153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.08589233333333335</v>
+      </c>
+      <c r="H16">
+        <v>0.257677</v>
+      </c>
+      <c r="I16">
+        <v>0.004851749260682376</v>
+      </c>
+      <c r="J16">
+        <v>0.004851749260682376</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4652066666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.39562</v>
+      </c>
+      <c r="O16">
+        <v>0.1806374120916351</v>
+      </c>
+      <c r="P16">
+        <v>0.1806374120916351</v>
+      </c>
+      <c r="Q16">
+        <v>0.03995768608222224</v>
+      </c>
+      <c r="R16">
+        <v>0.3596191747400001</v>
+      </c>
+      <c r="S16">
+        <v>0.000876407430567168</v>
+      </c>
+      <c r="T16">
+        <v>0.000876407430567168</v>
       </c>
     </row>
   </sheetData>
